--- a/evaluations/manual/pl-marker_ace05_albert_RE_jun17_eval.xlsx
+++ b/evaluations/manual/pl-marker_ace05_albert_RE_jun17_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpmea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E67E3-78FF-4299-BDF1-1FBE2C2882F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C127B6F-71E5-4D92-BAFA-72C23845773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1831,28 +1831,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2462,13 +2441,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:I5">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>NOT(EXACT(INDIRECT("B"&amp;ROW()), INDIRECT("B"&amp;ROW()-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N5">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A2:N5">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("B"&amp;ROW()), INDIRECT("B"&amp;ROW()-1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2480,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2557,8 +2531,8 @@
         <v>562</v>
       </c>
       <c r="M2">
-        <f xml:space="preserve"> SUM(J2:J128)</f>
-        <v>127</v>
+        <f xml:space="preserve"> SUM(J2:J160)</f>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2597,8 +2571,8 @@
         <v>563</v>
       </c>
       <c r="M3">
-        <f xml:space="preserve"> COUNTIF(J2:J128, "&gt;0")/2748</f>
-        <v>3.6390101892285295E-2</v>
+        <f xml:space="preserve"> COUNTIF(J2:J160, "&gt;0")/2748</f>
+        <v>4.3668122270742356E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">

--- a/evaluations/manual/pl-marker_ace05_albert_RE_jun17_eval.xlsx
+++ b/evaluations/manual/pl-marker_ace05_albert_RE_jun17_eval.xlsx
@@ -9593,8 +9593,8 @@
         <v>21</v>
       </c>
       <c r="Q2" s="2">
-        <f>AVERAGE(J2:J19)</f>
-        <v>0.9722222222</v>
+        <f>AVERAGE(J2:J1000)</f>
+        <v>0.9936708861</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>22</v>
@@ -9646,8 +9646,8 @@
         <v>29</v>
       </c>
       <c r="Q3" s="2">
-        <f> AVERAGE(K2:K19)</f>
-        <v>0.8888888889</v>
+        <f> AVERAGE(K2:K1000)</f>
+        <v>0.9810126582</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>30</v>
@@ -9702,7 +9702,7 @@
         <v>37</v>
       </c>
       <c r="Q4" s="2">
-        <f>AVERAGE(L2:L19)</f>
+        <f>AVERAGE(L2:L1000)</f>
         <v>1</v>
       </c>
       <c r="S4" s="2" t="s">
@@ -9757,7 +9757,7 @@
         <v>41</v>
       </c>
       <c r="Q5" s="2">
-        <f>SUM(M2:M19)</f>
+        <f>SUM(M2:M1000)</f>
         <v>0</v>
       </c>
       <c r="S5" s="2" t="s">
